--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.9116102222515</v>
+        <v>230.398954839982</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.4771992980113</v>
+        <v>315.2420144964307</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.8084981721121</v>
+        <v>285.155759077931</v>
       </c>
       <c r="AD2" t="n">
-        <v>188911.6102222514</v>
+        <v>230398.954839982</v>
       </c>
       <c r="AE2" t="n">
-        <v>258477.1992980113</v>
+        <v>315242.0144964308</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.726755011388815e-06</v>
+        <v>4.609714637977741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.430555555555557</v>
       </c>
       <c r="AH2" t="n">
-        <v>233808.4981721121</v>
+        <v>285155.759077931</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.801309930991</v>
+        <v>157.0447625447331</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.1269022096043</v>
+        <v>214.875572439554</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.699352244392</v>
+        <v>194.3681493857445</v>
       </c>
       <c r="AD3" t="n">
-        <v>125801.309930991</v>
+        <v>157044.7625447331</v>
       </c>
       <c r="AE3" t="n">
-        <v>172126.9022096042</v>
+        <v>214875.572439554</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.623979252809589e-06</v>
+        <v>6.126516734957936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>155699.352244392</v>
+        <v>194368.1493857445</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.8856748422559</v>
+        <v>133.7147327599683</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.4551604835999</v>
+        <v>182.9543964397815</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.7141767462667</v>
+        <v>165.4934856217282</v>
       </c>
       <c r="AD4" t="n">
-        <v>112885.6748422559</v>
+        <v>133714.7327599683</v>
       </c>
       <c r="AE4" t="n">
-        <v>154455.1604835999</v>
+        <v>182954.3964397815</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.991765565304886e-06</v>
+        <v>6.748277744390874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.077160493827161</v>
       </c>
       <c r="AH4" t="n">
-        <v>139714.1767462667</v>
+        <v>165493.4856217282</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.39036144291802</v>
+        <v>129.5484732020884</v>
       </c>
       <c r="AB5" t="n">
-        <v>134.6220332025414</v>
+        <v>177.2539363102935</v>
       </c>
       <c r="AC5" t="n">
-        <v>121.7738952969371</v>
+        <v>160.3370694063507</v>
       </c>
       <c r="AD5" t="n">
-        <v>98390.36144291802</v>
+        <v>129548.4732020885</v>
       </c>
       <c r="AE5" t="n">
-        <v>134622.0332025414</v>
+        <v>177253.9363102935</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.105205296133081e-06</v>
+        <v>6.940053237804432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.934413580246914</v>
       </c>
       <c r="AH5" t="n">
-        <v>121773.8952969371</v>
+        <v>160337.0694063507</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.8282535131663</v>
+        <v>177.0147056987257</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.8968940620031</v>
+        <v>242.1993296745462</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.7235764533443</v>
+        <v>219.0841655793719</v>
       </c>
       <c r="AD2" t="n">
-        <v>146828.2535131663</v>
+        <v>177014.7056987257</v>
       </c>
       <c r="AE2" t="n">
-        <v>200896.8940620031</v>
+        <v>242199.3296745463</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.228587464860082e-06</v>
+        <v>5.591238738517332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.493055555555554</v>
       </c>
       <c r="AH2" t="n">
-        <v>181723.5764533443</v>
+        <v>219084.1655793719</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.6984154233025</v>
+        <v>126.8796406195735</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.9894791839712</v>
+        <v>173.6023218303146</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.0564481882136</v>
+        <v>157.0339598872667</v>
       </c>
       <c r="AD3" t="n">
-        <v>106698.4154233025</v>
+        <v>126879.6406195735</v>
       </c>
       <c r="AE3" t="n">
-        <v>145989.4791839712</v>
+        <v>173602.3218303146</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129588617844292e-06</v>
+        <v>7.151584432987286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.077160493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>132056.4481882135</v>
+        <v>157033.9598872667</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.02402263761417</v>
+        <v>123.2103853146225</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.279571702969</v>
+        <v>168.5818848459637</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.1321880176721</v>
+        <v>152.4926663624731</v>
       </c>
       <c r="AD4" t="n">
-        <v>93024.02263761417</v>
+        <v>123210.3853146225</v>
       </c>
       <c r="AE4" t="n">
-        <v>127279.571702969</v>
+        <v>168581.8848459637</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.240149239306114e-06</v>
+        <v>7.343052323016613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>115132.1880176721</v>
+        <v>152492.6663624731</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.21043331974778</v>
+        <v>107.4412540537293</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.0616505545801</v>
+        <v>147.0058637698482</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4122579402855</v>
+        <v>132.9758304557195</v>
       </c>
       <c r="AD2" t="n">
-        <v>89210.43331974778</v>
+        <v>107441.2540537293</v>
       </c>
       <c r="AE2" t="n">
-        <v>122061.6505545801</v>
+        <v>147005.8637698482</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.47749614636249e-06</v>
+        <v>8.472386220057834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.223765432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>110412.2579402855</v>
+        <v>132975.8304557195</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.08388916131265</v>
+        <v>116.0772402278084</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.8344601893606</v>
+        <v>158.8220010460381</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1569257432593</v>
+        <v>143.6642521743264</v>
       </c>
       <c r="AD2" t="n">
-        <v>97083.88916131266</v>
+        <v>116077.2402278084</v>
       </c>
       <c r="AE2" t="n">
-        <v>132834.4601893606</v>
+        <v>158822.0010460381</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303081440397631e-06</v>
+        <v>7.839279863639025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.200617283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>120156.9257432593</v>
+        <v>143664.2521743264</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.79350316705964</v>
+        <v>112.7868542335553</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.3324089104408</v>
+        <v>154.3199497671183</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.0845439197295</v>
+        <v>139.5918703507966</v>
       </c>
       <c r="AD3" t="n">
-        <v>93793.50316705964</v>
+        <v>112786.8542335553</v>
       </c>
       <c r="AE3" t="n">
-        <v>128332.4089104408</v>
+        <v>154319.9497671183</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.452249517285599e-06</v>
+        <v>8.111031704184611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.027006172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>116084.5439197295</v>
+        <v>139591.8703507966</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.20859118159736</v>
+        <v>112.616541082799</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.9543977092362</v>
+        <v>154.0869198005676</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.6969955419343</v>
+        <v>139.3810804371938</v>
       </c>
       <c r="AD2" t="n">
-        <v>86208.59118159735</v>
+        <v>112616.541082799</v>
       </c>
       <c r="AE2" t="n">
-        <v>117954.3977092362</v>
+        <v>154086.9198005676</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.412004595595812e-06</v>
+        <v>8.64610745742373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.505401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>106696.9955419343</v>
+        <v>139381.0804371938</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.4734003526862</v>
+        <v>194.0908854581784</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.9890771310179</v>
+        <v>265.5637121693001</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.9480143312143</v>
+        <v>240.2186842009507</v>
       </c>
       <c r="AD2" t="n">
-        <v>153473.4003526862</v>
+        <v>194090.8854581784</v>
       </c>
       <c r="AE2" t="n">
-        <v>209989.0771310179</v>
+        <v>265563.7121693001</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105470344008774e-06</v>
+        <v>5.342903366661367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>189948.0143312143</v>
+        <v>240218.6842009507</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1902112852779</v>
+        <v>131.5417137738609</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.1353524463707</v>
+        <v>179.9811759961591</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.6157679322389</v>
+        <v>162.8040251643031</v>
       </c>
       <c r="AD3" t="n">
-        <v>111190.2112852779</v>
+        <v>131541.7137738609</v>
       </c>
       <c r="AE3" t="n">
-        <v>152135.3524463707</v>
+        <v>179981.1759961591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.999023966346054e-06</v>
+        <v>6.880245581597946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.192901234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>137615.7679322389</v>
+        <v>162804.025164303</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.29363998952641</v>
+        <v>124.7354186050026</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.0167181754189</v>
+        <v>170.6685026735812</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.7035436688924</v>
+        <v>154.38014031321</v>
       </c>
       <c r="AD4" t="n">
-        <v>94293.63998952642</v>
+        <v>124735.4186050026</v>
       </c>
       <c r="AE4" t="n">
-        <v>129016.7181754189</v>
+        <v>170668.5026735812</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.210836448285971e-06</v>
+        <v>7.24466497624488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.934413580246914</v>
       </c>
       <c r="AH4" t="n">
-        <v>116703.5436688924</v>
+        <v>154380.14031321</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.08937385208358</v>
+        <v>110.941800300847</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.4230351826125</v>
+        <v>151.7954655783534</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.3117841055702</v>
+        <v>137.3083193898708</v>
       </c>
       <c r="AD2" t="n">
-        <v>85089.37385208358</v>
+        <v>110941.800300847</v>
       </c>
       <c r="AE2" t="n">
-        <v>116423.0351826125</v>
+        <v>151795.4655783534</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.30020953049467e-06</v>
+        <v>8.620459656886718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.779320987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>105311.7841055702</v>
+        <v>137308.3193898708</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.7701556764023</v>
+        <v>146.2129109093467</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.7700785320759</v>
+        <v>200.0549551644578</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.5218464757322</v>
+        <v>180.9619910225118</v>
       </c>
       <c r="AD2" t="n">
-        <v>116770.1556764023</v>
+        <v>146212.9109093467</v>
       </c>
       <c r="AE2" t="n">
-        <v>159770.0785320759</v>
+        <v>200054.9551644578</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680383463638382e-06</v>
+        <v>6.518232591989098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.868055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>144521.8464757322</v>
+        <v>180961.9910225118</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.33597113554569</v>
+        <v>117.6933855139185</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.8651728156066</v>
+        <v>161.0332823257909</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3299703574522</v>
+        <v>145.664491872293</v>
       </c>
       <c r="AD3" t="n">
-        <v>88335.9711355457</v>
+        <v>117693.3855139185</v>
       </c>
       <c r="AE3" t="n">
-        <v>120865.1728156066</v>
+        <v>161033.2823257909</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364245496144886e-06</v>
+        <v>7.729403067225691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>109329.9703574522</v>
+        <v>145664.491872293</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.5773023636949</v>
+        <v>170.4986260991508</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.3440669267989</v>
+        <v>233.283742097269</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.987019135953</v>
+        <v>211.0194691673614</v>
       </c>
       <c r="AD2" t="n">
-        <v>140577.3023636949</v>
+        <v>170498.6260991508</v>
       </c>
       <c r="AE2" t="n">
-        <v>192344.066926799</v>
+        <v>233283.742097269</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.353314085509427e-06</v>
+        <v>5.847886956410531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.311728395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>173987.019135953</v>
+        <v>211019.4691673614</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.59863099938123</v>
+        <v>122.5198652262861</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.6975320965844</v>
+        <v>167.6370847975061</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.6056974544229</v>
+        <v>151.6380367046048</v>
       </c>
       <c r="AD3" t="n">
-        <v>92598.63099938123</v>
+        <v>122519.8652262861</v>
       </c>
       <c r="AE3" t="n">
-        <v>126697.5320965844</v>
+        <v>167637.0847975061</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.245542108326642e-06</v>
+        <v>7.403854719562697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.984567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>114605.6974544229</v>
+        <v>151638.0367046048</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.30118034737211</v>
+        <v>121.222414574277</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.9223028750234</v>
+        <v>165.8618555759451</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.9998936182173</v>
+        <v>150.0322328683991</v>
       </c>
       <c r="AD4" t="n">
-        <v>91301.18034737211</v>
+        <v>121222.414574277</v>
       </c>
       <c r="AE4" t="n">
-        <v>124922.3028750234</v>
+        <v>165861.8555759451</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.294025607968296e-06</v>
+        <v>7.488405709397127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.926697530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>112999.8936182173</v>
+        <v>150032.2328683991</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.9713612340316</v>
+        <v>210.9837267141303</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2447562163862</v>
+        <v>288.6772428352405</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.7435022898517</v>
+        <v>261.126291940185</v>
       </c>
       <c r="AD2" t="n">
-        <v>179971.3612340316</v>
+        <v>210983.7267141303</v>
       </c>
       <c r="AE2" t="n">
-        <v>246244.7562163862</v>
+        <v>288677.2428352404</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.847441398340967e-06</v>
+        <v>4.84046165907502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.172067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>222743.5022898517</v>
+        <v>261126.291940185</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.0662541551129</v>
+        <v>150.9079379260684</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.2799458842477</v>
+        <v>206.4788982587067</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.6012984174527</v>
+        <v>186.7728420039084</v>
       </c>
       <c r="AD3" t="n">
-        <v>120066.2541551129</v>
+        <v>150907.9379260684</v>
       </c>
       <c r="AE3" t="n">
-        <v>164279.9458842477</v>
+        <v>206478.8982587067</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.763960936704118e-06</v>
+        <v>6.398484130696307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.424382716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>148601.2984174527</v>
+        <v>186772.8420039084</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.99918297968756</v>
+        <v>127.9261180966636</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.7185614546883</v>
+        <v>175.0341584817965</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.0520882211591</v>
+        <v>158.329144058327</v>
       </c>
       <c r="AD4" t="n">
-        <v>96999.18297968755</v>
+        <v>127926.1180966636</v>
       </c>
       <c r="AE4" t="n">
-        <v>132718.5614546883</v>
+        <v>175034.1584817964</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.148027779586615e-06</v>
+        <v>7.051372309037002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.922839506172839</v>
       </c>
       <c r="AH4" t="n">
-        <v>120052.0882211591</v>
+        <v>158329.144058327</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.17803552168286</v>
+        <v>128.1049706386589</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.9632753930634</v>
+        <v>175.2788724201716</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.2734470047139</v>
+        <v>158.5505028418818</v>
       </c>
       <c r="AD5" t="n">
-        <v>97178.03552168286</v>
+        <v>128104.9706386589</v>
       </c>
       <c r="AE5" t="n">
-        <v>132963.2753930633</v>
+        <v>175278.8724201716</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.14093405705784e-06</v>
+        <v>7.039313450884326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>120273.4470047139</v>
+        <v>158550.5028418818</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.8504408125574</v>
+        <v>132.5042876954267</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.0927546777794</v>
+        <v>181.2982121014091</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5316215998042</v>
+        <v>163.9953651921402</v>
       </c>
       <c r="AD2" t="n">
-        <v>103850.4408125574</v>
+        <v>132504.2876954267</v>
       </c>
       <c r="AE2" t="n">
-        <v>142092.7546777794</v>
+        <v>181298.2121014091</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.063324769508956e-06</v>
+        <v>7.327136104364331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.435956790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>128531.6215998042</v>
+        <v>163995.3651921402</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.50575868796041</v>
+        <v>114.7221409188192</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.6751924535184</v>
+        <v>156.9678943887178</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.2037354895738</v>
+        <v>141.9870988541251</v>
       </c>
       <c r="AD3" t="n">
-        <v>95505.75868796041</v>
+        <v>114722.1409188192</v>
       </c>
       <c r="AE3" t="n">
-        <v>130675.1924535184</v>
+        <v>156967.8943887178</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.417660846817331e-06</v>
+        <v>7.966087901820279e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>118203.7354895738</v>
+        <v>141987.0988541251</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.02276861009632</v>
+        <v>109.5262991175996</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.5413676534239</v>
+        <v>149.8587144119303</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.6553143195212</v>
+        <v>135.5564090365232</v>
       </c>
       <c r="AD2" t="n">
-        <v>91022.76861009632</v>
+        <v>109526.2991175996</v>
       </c>
       <c r="AE2" t="n">
-        <v>124541.3676534239</v>
+        <v>149858.7144119303</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462139736298745e-06</v>
+        <v>8.324926457371301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.158179012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>112655.3143195212</v>
+        <v>135556.4090365232</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.34934436172817</v>
+        <v>109.8528748692315</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.9882030043117</v>
+        <v>150.3055497628181</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.0595043316577</v>
+        <v>135.9605990486597</v>
       </c>
       <c r="AD3" t="n">
-        <v>91349.34436172817</v>
+        <v>109852.8748692315</v>
       </c>
       <c r="AE3" t="n">
-        <v>124988.2030043117</v>
+        <v>150305.5497628181</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.458500630946665e-06</v>
+        <v>8.318137049997918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>113059.5043316577</v>
+        <v>135960.5990486597</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.72648887210389</v>
+        <v>114.4563646109894</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.0312522943062</v>
+        <v>156.6042475191221</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.5756380402896</v>
+        <v>141.6581579313819</v>
       </c>
       <c r="AD2" t="n">
-        <v>87726.48887210389</v>
+        <v>114456.3646109894</v>
       </c>
       <c r="AE2" t="n">
-        <v>120031.2522943062</v>
+        <v>156604.2475191221</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457769664684526e-06</v>
+        <v>8.572456375370056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.339506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>108575.6380402896</v>
+        <v>141658.1579313819</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.62156209774584</v>
+        <v>117.7425110020328</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7289074370155</v>
+        <v>161.1004979858924</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6340783763989</v>
+        <v>145.7252925641323</v>
       </c>
       <c r="AD2" t="n">
-        <v>92621.56209774583</v>
+        <v>117742.5110020328</v>
       </c>
       <c r="AE2" t="n">
-        <v>126728.9074370155</v>
+        <v>161100.4979858924</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.086146218535432e-06</v>
+        <v>8.428082417340117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.253858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>114634.0783763989</v>
+        <v>145725.2925641323</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3004064044482</v>
+        <v>162.9458329689894</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3874968413704</v>
+        <v>222.9496773308709</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9806901253407</v>
+        <v>201.6716730383141</v>
       </c>
       <c r="AD2" t="n">
-        <v>133300.4064044482</v>
+        <v>162945.8329689894</v>
       </c>
       <c r="AE2" t="n">
-        <v>182387.4968413704</v>
+        <v>222949.6773308709</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.515634166912204e-06</v>
+        <v>6.176830547316586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080246913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>164980.6901253407</v>
+        <v>201671.6730383141</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.69969616296044</v>
+        <v>119.3450332189506</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.7310815614166</v>
+        <v>163.2931395813688</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.017799391382</v>
+        <v>147.7086715231288</v>
       </c>
       <c r="AD3" t="n">
-        <v>89699.69616296043</v>
+        <v>119345.0332189506</v>
       </c>
       <c r="AE3" t="n">
-        <v>122731.0815614166</v>
+        <v>163293.1395813688</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.334178072949382e-06</v>
+        <v>7.61497990048748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>111017.799391382</v>
+        <v>147708.6715231288</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.00077239439334</v>
+        <v>119.6461094503835</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.1430273438088</v>
+        <v>163.7050853637609</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.3904296464724</v>
+        <v>148.0813017782192</v>
       </c>
       <c r="AD4" t="n">
-        <v>90000.77239439334</v>
+        <v>119646.1094503835</v>
       </c>
       <c r="AE4" t="n">
-        <v>123143.0273438088</v>
+        <v>163705.0853637609</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.324650458965597e-06</v>
+        <v>7.59824025856115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>111390.4296464724</v>
+        <v>148081.3017782192</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.7604247207008</v>
+        <v>202.7067109557909</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.3277494690423</v>
+        <v>277.3522647185222</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.2045396952278</v>
+        <v>250.8821538402161</v>
       </c>
       <c r="AD2" t="n">
-        <v>161760.4247207008</v>
+        <v>202706.7109557909</v>
       </c>
       <c r="AE2" t="n">
-        <v>221327.7494690423</v>
+        <v>277352.2647185222</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967527567500694e-06</v>
+        <v>5.074141432045288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.940586419753085</v>
       </c>
       <c r="AH2" t="n">
-        <v>200204.5396952278</v>
+        <v>250882.1538402161</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.2423227058666</v>
+        <v>145.8454508225207</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.6796300585566</v>
+        <v>199.5521800624678</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.630907470562</v>
+        <v>180.5072000706063</v>
       </c>
       <c r="AD3" t="n">
-        <v>115242.3227058666</v>
+        <v>145845.4508225207</v>
       </c>
       <c r="AE3" t="n">
-        <v>157679.6300585566</v>
+        <v>199552.1800624678</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.891884060762729e-06</v>
+        <v>6.654688023021441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.293209876543211</v>
       </c>
       <c r="AH3" t="n">
-        <v>142630.907470562</v>
+        <v>180507.2000706063</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.52652596385109</v>
+        <v>126.2149054265257</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.7036071565796</v>
+        <v>172.6928018131401</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.2294383332551</v>
+        <v>156.2112431840117</v>
       </c>
       <c r="AD4" t="n">
-        <v>95526.52596385109</v>
+        <v>126214.9054265257</v>
       </c>
       <c r="AE4" t="n">
-        <v>130703.6071565796</v>
+        <v>172692.8018131401</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.179114082720517e-06</v>
+        <v>7.145819350967546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.926697530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>118229.4383332551</v>
+        <v>156211.2431840117</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.76111463376125</v>
+        <v>126.4494940964359</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.0245817240722</v>
+        <v>173.0137763806327</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.519779538517</v>
+        <v>156.5015843892735</v>
       </c>
       <c r="AD5" t="n">
-        <v>95761.11463376126</v>
+        <v>126449.4940964359</v>
       </c>
       <c r="AE5" t="n">
-        <v>131024.5817240722</v>
+        <v>173013.7763806327</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.178526918579737e-06</v>
+        <v>7.14481536572179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.926697530864198</v>
       </c>
       <c r="AH5" t="n">
-        <v>118519.779538517</v>
+        <v>156501.5843892735</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9925510647868</v>
+        <v>133.3736727311831</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.1824638436844</v>
+        <v>182.4877430618913</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.9945234347863</v>
+        <v>165.0713689872716</v>
       </c>
       <c r="AD2" t="n">
-        <v>100992.5510647868</v>
+        <v>133373.6727311831</v>
       </c>
       <c r="AE2" t="n">
-        <v>138182.4638436844</v>
+        <v>182487.7430618913</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.6060995305888e-06</v>
+        <v>7.729532229098516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337962962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>124994.5234347863</v>
+        <v>165071.3689872716</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.63534190309514</v>
+        <v>111.3919193618047</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7477615746165</v>
+        <v>152.4113383354068</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6511331015692</v>
+        <v>137.8654141153741</v>
       </c>
       <c r="AD2" t="n">
-        <v>92635.34190309513</v>
+        <v>111391.9193618047</v>
       </c>
       <c r="AE2" t="n">
-        <v>126747.7615746165</v>
+        <v>152411.3383354069</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.453713128071449e-06</v>
+        <v>8.205665969178767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.092592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>114651.1331015692</v>
+        <v>137865.4141153741</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.31752224241163</v>
+        <v>111.0740997011212</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.3129066936557</v>
+        <v>151.976483454446</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.2577801601245</v>
+        <v>137.4720611739294</v>
       </c>
       <c r="AD3" t="n">
-        <v>92317.52224241162</v>
+        <v>111074.0997011212</v>
       </c>
       <c r="AE3" t="n">
-        <v>126312.9066936557</v>
+        <v>151976.483454446</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.474171320082549e-06</v>
+        <v>8.243358807749422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>114257.7801601245</v>
+        <v>137472.0611739294</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.40263253914</v>
+        <v>139.5439252618468</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0577524603833</v>
+        <v>190.9301547866709</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6410125764927</v>
+        <v>172.7080487860402</v>
       </c>
       <c r="AD2" t="n">
-        <v>110402.63253914</v>
+        <v>139543.9252618468</v>
       </c>
       <c r="AE2" t="n">
-        <v>151057.7524603833</v>
+        <v>190930.1547866709</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.857130737002621e-06</v>
+        <v>6.890482574886046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.659722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>136641.0125764927</v>
+        <v>172708.0487860402</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.05822573498307</v>
+        <v>116.1141776031182</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.116905188409</v>
+        <v>158.872540392499</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.7485549388847</v>
+        <v>143.7099681164934</v>
       </c>
       <c r="AD3" t="n">
-        <v>87058.22573498306</v>
+        <v>116114.1776031182</v>
       </c>
       <c r="AE3" t="n">
-        <v>119116.905188409</v>
+        <v>158872.540392499</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.388549588745436e-06</v>
+        <v>7.839823571490519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.976851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>107748.5549388847</v>
+        <v>143709.9681164934</v>
       </c>
     </row>
   </sheetData>
